--- a/dataproject/Money-in-bank.xlsx
+++ b/dataproject/Money-in-bank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PeterVilmar/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F715100-4B50-5E42-BEC9-3B1CC58E3338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9212B4A6-88CA-7646-9190-A19FD1DBC3E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="1840" windowWidth="28800" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t>2014</t>
   </si>
@@ -446,7 +446,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -534,6 +534,12 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
@@ -566,6 +572,12 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
@@ -598,6 +610,12 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
@@ -630,6 +648,12 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
@@ -662,6 +686,12 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
@@ -694,6 +724,12 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
@@ -726,6 +762,12 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
@@ -758,6 +800,12 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
@@ -790,6 +838,12 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C11" s="1" t="s">
         <v>20</v>
       </c>

--- a/dataproject/Money-in-bank.xlsx
+++ b/dataproject/Money-in-bank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PeterVilmar/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9212B4A6-88CA-7646-9190-A19FD1DBC3E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D7952D-D527-504C-96E2-5E558B688B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="1840" windowWidth="28800" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -446,7 +446,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
